--- a/Final Web attainment AY 2022-23.xlsx
+++ b/Final Web attainment AY 2022-23.xlsx
@@ -615,20 +615,20 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
-        <v>NaN</v>
-      </c>
-      <c r="C5" s="12">
-        <v>NaN</v>
-      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="12">
         <v>NaN</v>
       </c>
       <c r="E5" s="12">
         <v>NaN</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="12">
+        <v>NaN</v>
+      </c>
+      <c r="G5" s="12">
+        <v>NaN</v>
+      </c>
       <c r="H5" s="12">
         <v>NaN</v>
       </c>
